--- a/data/trans_dic/P1434-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1434-Edad-trans_dic.xlsx
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007212945868050973</v>
+        <v>0.006772438938851673</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
@@ -732,16 +732,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.00866144597271922</v>
+        <v>0.008217773870216183</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01582745030046884</v>
+        <v>0.0163856743232681</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.009855492571137256</v>
+        <v>0.009214272493783067</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01199170021759881</v>
+        <v>0.01104559457939218</v>
       </c>
     </row>
     <row r="13">
@@ -776,14 +776,14 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001778319694779612</v>
+        <v>0.00175289096347604</v>
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.002207214438209323</v>
+        <v>0.002211537128764369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007394181499378862</v>
+        <v>0.00745839850144916</v>
       </c>
     </row>
     <row r="15">
@@ -794,14 +794,14 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02255501216356548</v>
+        <v>0.0207287651405341</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.01724135718148738</v>
+        <v>0.01623290452936611</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02898118239144443</v>
+        <v>0.0268320691800102</v>
       </c>
     </row>
     <row r="16">
@@ -836,16 +836,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03301480541594107</v>
+        <v>0.03204683702957285</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02975144052207017</v>
+        <v>0.03248470065387102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01482965858350594</v>
+        <v>0.01508585134322736</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03151726892691789</v>
+        <v>0.03122416884355934</v>
       </c>
     </row>
     <row r="18">
@@ -856,16 +856,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07537085328761299</v>
+        <v>0.07558240865876675</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07389477424223116</v>
+        <v>0.07588921903422688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04355002184159357</v>
+        <v>0.04549881867116679</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06389858338903698</v>
+        <v>0.06195833144494061</v>
       </c>
     </row>
     <row r="19">
@@ -889,7 +889,7 @@
         <v>0.1277555638324434</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1608557750455149</v>
+        <v>0.1608557750455148</v>
       </c>
     </row>
     <row r="20">
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09107384213606416</v>
+        <v>0.09020726813690447</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1344206540436809</v>
+        <v>0.1334842088022146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09300295675334769</v>
+        <v>0.09367033278226175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1314940423191755</v>
+        <v>0.1332025398214629</v>
       </c>
     </row>
     <row r="21">
@@ -920,16 +920,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1710252503439199</v>
+        <v>0.1688398534333557</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2311694737590348</v>
+        <v>0.2278786040413516</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1673040329128525</v>
+        <v>0.1689143531501579</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1956058789754378</v>
+        <v>0.191279778531782</v>
       </c>
     </row>
     <row r="22">
@@ -964,16 +964,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.152923080258213</v>
+        <v>0.1534531507687631</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1342802646783477</v>
+        <v>0.1295981984132404</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.143367624375989</v>
+        <v>0.1450223944369729</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2479188240573857</v>
+        <v>0.2469553905004104</v>
       </c>
     </row>
     <row r="24">
@@ -984,16 +984,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2596126080406573</v>
+        <v>0.2612291419392189</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2332375075806051</v>
+        <v>0.238652854173722</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2301330265301016</v>
+        <v>0.2308506957511659</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3358118722110057</v>
+        <v>0.3321913070266949</v>
       </c>
     </row>
     <row r="25">
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02680995041772366</v>
+        <v>0.02696188368531471</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02994319383103293</v>
+        <v>0.03015574836783993</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02692065483006062</v>
+        <v>0.02657793845890024</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04865183142197058</v>
+        <v>0.04859966704110641</v>
       </c>
     </row>
     <row r="27">
@@ -1048,16 +1048,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03872607797091985</v>
+        <v>0.03889034669298826</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04331399572559431</v>
+        <v>0.04433911553896724</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03850902931254336</v>
+        <v>0.03828818205783788</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06189953766040319</v>
+        <v>0.06152756183689279</v>
       </c>
     </row>
     <row r="28">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5305</v>
+        <v>4981</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5532</v>
+        <v>5248</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10792</v>
+        <v>11173</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6594</v>
+        <v>6165</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7414</v>
+        <v>6829</v>
       </c>
     </row>
     <row r="16">
@@ -1433,14 +1433,14 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5133</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="19">
@@ -1451,14 +1451,14 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11709</v>
+        <v>10761</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>11139</v>
+        <v>10487</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20119</v>
+        <v>18627</v>
       </c>
     </row>
     <row r="20">
@@ -1513,16 +1513,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12767</v>
+        <v>12393</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12776</v>
+        <v>13950</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7087</v>
+        <v>7210</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>19098</v>
+        <v>18921</v>
       </c>
     </row>
     <row r="23">
@@ -1533,16 +1533,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>29147</v>
+        <v>29228</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31733</v>
+        <v>32589</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20813</v>
+        <v>21745</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>38720</v>
+        <v>37545</v>
       </c>
     </row>
     <row r="24">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>26647</v>
+        <v>26393</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>41642</v>
+        <v>41352</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>31094</v>
+        <v>31317</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>53300</v>
+        <v>53993</v>
       </c>
     </row>
     <row r="27">
@@ -1617,16 +1617,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>50039</v>
+        <v>49400</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>71613</v>
+        <v>70594</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>55935</v>
+        <v>56473</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>79288</v>
+        <v>77534</v>
       </c>
     </row>
     <row r="28">
@@ -1681,16 +1681,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
+        <v>32207</v>
+      </c>
+      <c r="D30" s="6" t="n">
         <v>32096</v>
       </c>
-      <c r="D30" s="6" t="n">
-        <v>33256</v>
-      </c>
       <c r="E30" s="6" t="n">
-        <v>36845</v>
+        <v>37270</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>76684</v>
+        <v>76386</v>
       </c>
     </row>
     <row r="31">
@@ -1701,16 +1701,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>54488</v>
+        <v>54828</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>57763</v>
+        <v>59105</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>59144</v>
+        <v>59328</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>103871</v>
+        <v>102751</v>
       </c>
     </row>
     <row r="32">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>87844</v>
+        <v>88342</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>102543</v>
+        <v>103271</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>91378</v>
+        <v>90215</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>170878</v>
+        <v>170695</v>
       </c>
     </row>
     <row r="35">
@@ -1785,16 +1785,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>126888</v>
+        <v>127426</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>148333</v>
+        <v>151843</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>130713</v>
+        <v>129963</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>217407</v>
+        <v>216101</v>
       </c>
     </row>
     <row r="36">
